--- a/data/H29_jousei_data.xlsx
+++ b/data/H29_jousei_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1600000NL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuya.araki/Documents/Development/bi-claft/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27798C4-9E33-E549-8281-19F230BE2E5D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9210" activeTab="5"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>標的型メール攻撃の概況</t>
     <rPh sb="0" eb="2">
@@ -445,22 +446,6 @@
       <t>ハッセイ</t>
     </rPh>
     <rPh sb="24" eb="26">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正アクセス行為の発生状況</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
       <t>ジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1002,27 +987,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="168" formatCode="0_ "/>
+    <numFmt numFmtId="169" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1030,7 +1015,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1038,7 +1023,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1046,7 +1031,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1071,7 +1056,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1093,7 +1078,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1107,7 +1092,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1302,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1314,7 +1299,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1332,10 +1317,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1365,16 +1350,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1389,142 +1374,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1801,16 +1786,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1835,7 +1820,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1886,18 +1871,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="7" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1916,13 +1901,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="22.5" customHeight="1">
@@ -2033,18 +2018,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="A27:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -2065,13 +2050,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="24" customHeight="1">
@@ -2097,486 +2082,486 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="34">
+        <v>980</v>
+      </c>
+      <c r="F5" s="34">
+        <v>364</v>
+      </c>
+      <c r="G5" s="34">
+        <v>373</v>
+      </c>
+      <c r="H5" s="34">
+        <v>502</v>
+      </c>
+      <c r="I5" s="34">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18" customHeight="1">
+      <c r="B6" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37">
-        <v>980</v>
-      </c>
-      <c r="F5" s="37">
-        <v>364</v>
-      </c>
-      <c r="G5" s="37">
-        <v>373</v>
-      </c>
-      <c r="H5" s="37">
-        <v>502</v>
-      </c>
-      <c r="I5" s="37">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1">
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="34">
+        <v>478</v>
+      </c>
+      <c r="F6" s="34">
+        <v>192</v>
+      </c>
+      <c r="G6" s="34">
+        <v>240</v>
+      </c>
+      <c r="H6" s="34">
+        <v>374</v>
+      </c>
+      <c r="I6" s="34">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18" customHeight="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="37">
-        <v>478</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="D7" s="65"/>
+      <c r="E7" s="34">
+        <v>388</v>
+      </c>
+      <c r="F7" s="34">
+        <v>108</v>
+      </c>
+      <c r="G7" s="34">
+        <v>157</v>
+      </c>
+      <c r="H7" s="34">
+        <v>281</v>
+      </c>
+      <c r="I7" s="34">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="34">
+        <v>56</v>
+      </c>
+      <c r="F8" s="34">
+        <v>48</v>
+      </c>
+      <c r="G8" s="34">
+        <v>32</v>
+      </c>
+      <c r="H8" s="34">
+        <v>24</v>
+      </c>
+      <c r="I8" s="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="34">
+        <v>7</v>
+      </c>
+      <c r="F9" s="34">
+        <v>8</v>
+      </c>
+      <c r="G9" s="34">
+        <v>6</v>
+      </c>
+      <c r="H9" s="34">
+        <v>11</v>
+      </c>
+      <c r="I9" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18" customHeight="1">
+      <c r="B10" s="36"/>
+      <c r="C10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="34">
+        <v>8</v>
+      </c>
+      <c r="F10" s="34">
+        <v>9</v>
+      </c>
+      <c r="G10" s="34">
+        <v>8</v>
+      </c>
+      <c r="H10" s="34">
+        <v>4</v>
+      </c>
+      <c r="I10" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18" customHeight="1">
+      <c r="B11" s="36"/>
+      <c r="C11" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="34">
+        <v>14</v>
+      </c>
+      <c r="F11" s="34">
+        <v>16</v>
+      </c>
+      <c r="G11" s="34">
+        <v>21</v>
+      </c>
+      <c r="H11" s="34">
+        <v>36</v>
+      </c>
+      <c r="I11" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18" customHeight="1">
+      <c r="B12" s="37"/>
+      <c r="C12" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="34">
+        <v>5</v>
+      </c>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
+      <c r="G12" s="34">
+        <v>16</v>
+      </c>
+      <c r="H12" s="34">
+        <v>18</v>
+      </c>
+      <c r="I12" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18" customHeight="1">
+      <c r="B13" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="34">
+        <v>6655</v>
+      </c>
+      <c r="F13" s="34">
+        <v>7349</v>
+      </c>
+      <c r="G13" s="34">
+        <v>7483</v>
+      </c>
+      <c r="H13" s="34">
+        <v>7448</v>
+      </c>
+      <c r="I13" s="34">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="34">
+        <v>1124</v>
+      </c>
+      <c r="F14" s="34">
+        <v>1248</v>
+      </c>
+      <c r="G14" s="34">
+        <v>1295</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1368</v>
+      </c>
+      <c r="I14" s="34">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18" customHeight="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="34">
+        <v>956</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1133</v>
+      </c>
+      <c r="G15" s="34">
+        <v>951</v>
+      </c>
+      <c r="H15" s="34">
+        <v>828</v>
+      </c>
+      <c r="I15" s="34">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="34">
+        <v>158</v>
+      </c>
+      <c r="F16" s="34">
+        <v>381</v>
+      </c>
+      <c r="G16" s="34">
+        <v>511</v>
+      </c>
+      <c r="H16" s="34">
+        <v>208</v>
+      </c>
+      <c r="I16" s="34">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="18" customHeight="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="34">
+        <v>690</v>
+      </c>
+      <c r="F17" s="34">
+        <v>657</v>
+      </c>
+      <c r="G17" s="34">
+        <v>693</v>
+      </c>
+      <c r="H17" s="34">
+        <v>616</v>
+      </c>
+      <c r="I17" s="34">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="34">
+        <v>492</v>
+      </c>
+      <c r="F18" s="34">
+        <v>493</v>
+      </c>
+      <c r="G18" s="34">
+        <v>586</v>
+      </c>
+      <c r="H18" s="34">
+        <v>634</v>
+      </c>
+      <c r="I18" s="34">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18" customHeight="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="34">
+        <v>781</v>
+      </c>
+      <c r="F19" s="34">
+        <v>840</v>
+      </c>
+      <c r="G19" s="34">
+        <v>835</v>
+      </c>
+      <c r="H19" s="34">
+        <v>819</v>
+      </c>
+      <c r="I19" s="34">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18" customHeight="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="34">
+        <v>731</v>
+      </c>
+      <c r="F20" s="34">
+        <v>824</v>
+      </c>
+      <c r="G20" s="34">
+        <v>593</v>
+      </c>
+      <c r="H20" s="34">
+        <v>586</v>
+      </c>
+      <c r="I20" s="34">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18" customHeight="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="34">
+        <v>189</v>
+      </c>
+      <c r="F21" s="34">
+        <v>313</v>
+      </c>
+      <c r="G21" s="34">
+        <v>398</v>
+      </c>
+      <c r="H21" s="34">
+        <v>387</v>
+      </c>
+      <c r="I21" s="34">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="34">
+        <v>113</v>
+      </c>
+      <c r="F22" s="34">
+        <v>179</v>
+      </c>
+      <c r="G22" s="34">
+        <v>226</v>
+      </c>
+      <c r="H22" s="34">
+        <v>267</v>
+      </c>
+      <c r="I22" s="34">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18" customHeight="1">
+      <c r="B23" s="38"/>
+      <c r="C23" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="34">
+        <v>197</v>
+      </c>
+      <c r="F23" s="34">
+        <v>308</v>
+      </c>
+      <c r="G23" s="34">
+        <v>304</v>
+      </c>
+      <c r="H23" s="34">
+        <v>298</v>
+      </c>
+      <c r="I23" s="34">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="18" customHeight="1">
+      <c r="B24" s="38"/>
+      <c r="C24" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="34">
+        <v>122</v>
+      </c>
+      <c r="F24" s="34">
+        <v>148</v>
+      </c>
+      <c r="G24" s="34">
         <v>192</v>
       </c>
-      <c r="G6" s="37">
-        <v>240</v>
-      </c>
-      <c r="H6" s="37">
-        <v>374</v>
-      </c>
-      <c r="I6" s="37">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="18" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="37">
-        <v>388</v>
-      </c>
-      <c r="F7" s="37">
-        <v>108</v>
-      </c>
-      <c r="G7" s="37">
-        <v>157</v>
-      </c>
-      <c r="H7" s="37">
-        <v>281</v>
-      </c>
-      <c r="I7" s="37">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1">
-      <c r="B8" s="41"/>
-      <c r="C8" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="37">
-        <v>56</v>
-      </c>
-      <c r="F8" s="37">
-        <v>48</v>
-      </c>
-      <c r="G8" s="37">
-        <v>32</v>
-      </c>
-      <c r="H8" s="37">
-        <v>24</v>
-      </c>
-      <c r="I8" s="37">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="18" customHeight="1">
-      <c r="B9" s="41"/>
-      <c r="C9" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="37">
-        <v>7</v>
-      </c>
-      <c r="F9" s="37">
-        <v>8</v>
-      </c>
-      <c r="G9" s="37">
-        <v>6</v>
-      </c>
-      <c r="H9" s="37">
-        <v>11</v>
-      </c>
-      <c r="I9" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="18" customHeight="1">
-      <c r="B10" s="43"/>
-      <c r="C10" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="37">
-        <v>8</v>
-      </c>
-      <c r="F10" s="37">
-        <v>9</v>
-      </c>
-      <c r="G10" s="37">
-        <v>8</v>
-      </c>
-      <c r="H10" s="37">
-        <v>4</v>
-      </c>
-      <c r="I10" s="37">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="18" customHeight="1">
-      <c r="B11" s="43"/>
-      <c r="C11" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="37">
-        <v>14</v>
-      </c>
-      <c r="F11" s="37">
-        <v>16</v>
-      </c>
-      <c r="G11" s="37">
-        <v>21</v>
-      </c>
-      <c r="H11" s="37">
-        <v>36</v>
-      </c>
-      <c r="I11" s="37">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="18" customHeight="1">
-      <c r="B12" s="44"/>
-      <c r="C12" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="37">
-        <v>5</v>
-      </c>
-      <c r="F12" s="37">
-        <v>3</v>
-      </c>
-      <c r="G12" s="37">
-        <v>16</v>
-      </c>
-      <c r="H12" s="37">
-        <v>18</v>
-      </c>
-      <c r="I12" s="37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1">
-      <c r="B13" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37">
-        <v>6655</v>
-      </c>
-      <c r="F13" s="37">
-        <v>7349</v>
-      </c>
-      <c r="G13" s="37">
-        <v>7483</v>
-      </c>
-      <c r="H13" s="37">
-        <v>7448</v>
-      </c>
-      <c r="I13" s="37">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="37">
-        <v>1124</v>
-      </c>
-      <c r="F14" s="37">
-        <v>1248</v>
-      </c>
-      <c r="G14" s="37">
-        <v>1295</v>
-      </c>
-      <c r="H14" s="37">
-        <v>1368</v>
-      </c>
-      <c r="I14" s="37">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="37">
-        <v>956</v>
-      </c>
-      <c r="F15" s="37">
-        <v>1133</v>
-      </c>
-      <c r="G15" s="37">
-        <v>951</v>
-      </c>
-      <c r="H15" s="37">
-        <v>828</v>
-      </c>
-      <c r="I15" s="37">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="37">
-        <v>158</v>
-      </c>
-      <c r="F16" s="37">
-        <v>381</v>
-      </c>
-      <c r="G16" s="37">
-        <v>511</v>
-      </c>
-      <c r="H16" s="37">
-        <v>208</v>
-      </c>
-      <c r="I16" s="37">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="37">
-        <v>690</v>
-      </c>
-      <c r="F17" s="37">
-        <v>657</v>
-      </c>
-      <c r="G17" s="37">
-        <v>693</v>
-      </c>
-      <c r="H17" s="37">
-        <v>616</v>
-      </c>
-      <c r="I17" s="37">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="37">
-        <v>492</v>
-      </c>
-      <c r="F18" s="37">
-        <v>493</v>
-      </c>
-      <c r="G18" s="37">
-        <v>586</v>
-      </c>
-      <c r="H18" s="37">
-        <v>634</v>
-      </c>
-      <c r="I18" s="37">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="18" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="37">
-        <v>781</v>
-      </c>
-      <c r="F19" s="37">
-        <v>840</v>
-      </c>
-      <c r="G19" s="37">
-        <v>835</v>
-      </c>
-      <c r="H19" s="37">
-        <v>819</v>
-      </c>
-      <c r="I19" s="37">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="37">
-        <v>731</v>
-      </c>
-      <c r="F20" s="37">
-        <v>824</v>
-      </c>
-      <c r="G20" s="37">
-        <v>593</v>
-      </c>
-      <c r="H20" s="37">
-        <v>586</v>
-      </c>
-      <c r="I20" s="37">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18" customHeight="1">
-      <c r="B21" s="46"/>
-      <c r="C21" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="37">
-        <v>189</v>
-      </c>
-      <c r="F21" s="37">
-        <v>313</v>
-      </c>
-      <c r="G21" s="37">
-        <v>398</v>
-      </c>
-      <c r="H21" s="37">
-        <v>387</v>
-      </c>
-      <c r="I21" s="37">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="18" customHeight="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="37">
-        <v>113</v>
-      </c>
-      <c r="F22" s="37">
-        <v>179</v>
-      </c>
-      <c r="G22" s="37">
-        <v>226</v>
-      </c>
-      <c r="H22" s="37">
-        <v>267</v>
-      </c>
-      <c r="I22" s="37">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="37">
-        <v>197</v>
-      </c>
-      <c r="F23" s="37">
-        <v>308</v>
-      </c>
-      <c r="G23" s="37">
-        <v>304</v>
-      </c>
-      <c r="H23" s="37">
-        <v>298</v>
-      </c>
-      <c r="I23" s="37">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1">
-      <c r="B24" s="46"/>
-      <c r="C24" s="36" t="s">
+      <c r="H24" s="34">
+        <v>215</v>
+      </c>
+      <c r="I24" s="34">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="18" customHeight="1">
+      <c r="B25" s="41"/>
+      <c r="C25" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="37">
-        <v>122</v>
-      </c>
-      <c r="F24" s="37">
-        <v>148</v>
-      </c>
-      <c r="G24" s="37">
-        <v>192</v>
-      </c>
-      <c r="H24" s="37">
-        <v>215</v>
-      </c>
-      <c r="I24" s="37">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1">
-      <c r="B25" s="52"/>
-      <c r="C25" s="36" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="34">
+        <v>1260</v>
+      </c>
+      <c r="F25" s="34">
+        <v>1206</v>
+      </c>
+      <c r="G25" s="34">
+        <v>1410</v>
+      </c>
+      <c r="H25" s="34">
+        <v>1430</v>
+      </c>
+      <c r="I25" s="34">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18" customHeight="1">
+      <c r="B26" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="37">
-        <v>1260</v>
-      </c>
-      <c r="F25" s="37">
-        <v>1206</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1410</v>
-      </c>
-      <c r="H25" s="37">
-        <v>1430</v>
-      </c>
-      <c r="I25" s="37">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1">
-      <c r="B26" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56">
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="42">
         <v>8113</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="42">
         <v>7905</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="42">
         <v>8096</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="42">
         <v>8324</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="42">
         <v>9014</v>
       </c>
     </row>
@@ -2595,6 +2580,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B26:D26"/>
@@ -2604,18 +2601,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2624,17 +2609,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -2653,13 +2638,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1">
@@ -2683,169 +2668,169 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="44">
+        <v>36237</v>
+      </c>
+      <c r="D5" s="44">
+        <v>58340</v>
+      </c>
+      <c r="E5" s="45">
+        <v>67026</v>
+      </c>
+      <c r="F5" s="45">
+        <v>67480</v>
+      </c>
+      <c r="G5" s="44">
+        <v>67268</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B6" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="58">
-        <v>36237</v>
-      </c>
-      <c r="D5" s="58">
-        <v>58340</v>
-      </c>
-      <c r="E5" s="59">
-        <v>67026</v>
-      </c>
-      <c r="F5" s="59">
-        <v>67480</v>
-      </c>
-      <c r="G5" s="58">
-        <v>67268</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B6" s="60" t="s">
+      <c r="C6" s="47">
+        <v>10682</v>
+      </c>
+      <c r="D6" s="47">
+        <v>14185</v>
+      </c>
+      <c r="E6" s="48">
+        <v>16634</v>
+      </c>
+      <c r="F6" s="48">
+        <v>14583</v>
+      </c>
+      <c r="G6" s="47">
+        <v>11511</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B7" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="61">
-        <v>10682</v>
-      </c>
-      <c r="D6" s="61">
-        <v>14185</v>
-      </c>
-      <c r="E6" s="62">
-        <v>16634</v>
-      </c>
-      <c r="F6" s="62">
-        <v>14583</v>
-      </c>
-      <c r="G6" s="61">
-        <v>11511</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B7" s="63" t="s">
+      <c r="C7" s="47">
+        <v>9425</v>
+      </c>
+      <c r="D7" s="47">
+        <v>9757</v>
+      </c>
+      <c r="E7" s="48">
+        <v>10398</v>
+      </c>
+      <c r="F7" s="48">
+        <v>11136</v>
+      </c>
+      <c r="G7" s="47">
+        <v>11749</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B8" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="61">
-        <v>9425</v>
-      </c>
-      <c r="D7" s="61">
-        <v>9757</v>
-      </c>
-      <c r="E7" s="62">
-        <v>10398</v>
-      </c>
-      <c r="F7" s="62">
-        <v>11136</v>
-      </c>
-      <c r="G7" s="61">
-        <v>11749</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B8" s="57" t="s">
+      <c r="C8" s="44">
+        <v>6220</v>
+      </c>
+      <c r="D8" s="44">
+        <v>9550</v>
+      </c>
+      <c r="E8" s="45">
+        <v>7089</v>
+      </c>
+      <c r="F8" s="45">
+        <v>9530</v>
+      </c>
+      <c r="G8" s="44">
+        <v>11936</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B9" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="58">
-        <v>6220</v>
-      </c>
-      <c r="D8" s="58">
-        <v>9550</v>
-      </c>
-      <c r="E8" s="59">
-        <v>7089</v>
-      </c>
-      <c r="F8" s="59">
-        <v>9530</v>
-      </c>
-      <c r="G8" s="58">
-        <v>11936</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B9" s="63" t="s">
+      <c r="C9" s="47">
+        <v>3132</v>
+      </c>
+      <c r="D9" s="47">
+        <v>5080</v>
+      </c>
+      <c r="E9" s="48">
+        <v>4854</v>
+      </c>
+      <c r="F9" s="48">
+        <v>6913</v>
+      </c>
+      <c r="G9" s="47">
+        <v>4024</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="61">
-        <v>3132</v>
-      </c>
-      <c r="D9" s="61">
-        <v>5080</v>
-      </c>
-      <c r="E9" s="62">
-        <v>4854</v>
-      </c>
-      <c r="F9" s="62">
-        <v>6913</v>
-      </c>
-      <c r="G9" s="61">
-        <v>4024</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B10" s="60" t="s">
+      <c r="C10" s="47">
+        <v>5950</v>
+      </c>
+      <c r="D10" s="47">
+        <v>6545</v>
+      </c>
+      <c r="E10" s="48">
+        <v>6274</v>
+      </c>
+      <c r="F10" s="48">
+        <v>5440</v>
+      </c>
+      <c r="G10" s="47">
+        <v>5771</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B11" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="61">
-        <v>5950</v>
-      </c>
-      <c r="D10" s="61">
-        <v>6545</v>
-      </c>
-      <c r="E10" s="62">
-        <v>6274</v>
-      </c>
-      <c r="F10" s="62">
-        <v>5440</v>
-      </c>
-      <c r="G10" s="61">
-        <v>5771</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B11" s="60" t="s">
+      <c r="C11" s="47">
+        <v>13217</v>
+      </c>
+      <c r="D11" s="48">
+        <v>14643</v>
+      </c>
+      <c r="E11" s="48">
+        <v>15822</v>
+      </c>
+      <c r="F11" s="48">
+        <v>16436</v>
+      </c>
+      <c r="G11" s="47">
+        <v>17752</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B12" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="61">
-        <v>13217</v>
-      </c>
-      <c r="D11" s="62">
-        <v>14643</v>
-      </c>
-      <c r="E11" s="62">
-        <v>15822</v>
-      </c>
-      <c r="F11" s="62">
-        <v>16436</v>
-      </c>
-      <c r="G11" s="61">
-        <v>17752</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B12" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="65">
+      <c r="C12" s="51">
         <v>84863</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="51">
         <v>118100</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="52">
         <v>128097</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="52">
         <v>131518</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="51">
         <v>130011</v>
       </c>
       <c r="I12" s="9"/>
@@ -2858,16 +2843,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="61.75" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -2875,2211 +2860,2211 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="40.5">
-      <c r="B3" s="67" t="s">
+    <row r="3" spans="2:3" ht="45">
+      <c r="B3" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="4" spans="2:3" ht="12" customHeight="1">
-      <c r="B4" s="69">
+      <c r="B4" s="55">
         <v>42826</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="12" customHeight="1">
-      <c r="B5" s="69">
+      <c r="B5" s="55">
         <v>42827</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="12" customHeight="1">
-      <c r="B6" s="69">
+      <c r="B6" s="55">
         <v>42828</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="12" customHeight="1">
-      <c r="B7" s="69">
+      <c r="B7" s="55">
         <v>42829</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="12" customHeight="1">
-      <c r="B8" s="69">
+      <c r="B8" s="55">
         <v>42830</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="12" customHeight="1">
-      <c r="B9" s="69">
+      <c r="B9" s="55">
         <v>42831</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="12" customHeight="1">
-      <c r="B10" s="69">
+      <c r="B10" s="55">
         <v>42832</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="12" customHeight="1">
-      <c r="B11" s="69">
+      <c r="B11" s="55">
         <v>42833</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="12" customHeight="1">
-      <c r="B12" s="69">
+      <c r="B12" s="55">
         <v>42834</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="12" customHeight="1">
-      <c r="B13" s="69">
+      <c r="B13" s="55">
         <v>42835</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="12" customHeight="1">
-      <c r="B14" s="69">
+      <c r="B14" s="55">
         <v>42836</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="12" customHeight="1">
-      <c r="B15" s="69">
+      <c r="B15" s="55">
         <v>42837</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="12" customHeight="1">
-      <c r="B16" s="69">
+      <c r="B16" s="55">
         <v>42838</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="12" customHeight="1">
-      <c r="B17" s="69">
+      <c r="B17" s="55">
         <v>42839</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="12" customHeight="1">
-      <c r="B18" s="69">
+      <c r="B18" s="55">
         <v>42840</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="12" customHeight="1">
-      <c r="B19" s="69">
+      <c r="B19" s="55">
         <v>42841</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="12" customHeight="1">
-      <c r="B20" s="69">
+      <c r="B20" s="55">
         <v>42842</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="12" customHeight="1">
-      <c r="B21" s="69">
+      <c r="B21" s="55">
         <v>42843</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="12" customHeight="1">
-      <c r="B22" s="69">
+      <c r="B22" s="55">
         <v>42844</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="12" customHeight="1">
-      <c r="B23" s="69">
+      <c r="B23" s="55">
         <v>42845</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="12" customHeight="1">
-      <c r="B24" s="69">
+      <c r="B24" s="55">
         <v>42846</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="12" customHeight="1">
-      <c r="B25" s="69">
+      <c r="B25" s="55">
         <v>42847</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="12" customHeight="1">
-      <c r="B26" s="69">
+      <c r="B26" s="55">
         <v>42848</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="12" customHeight="1">
-      <c r="B27" s="69">
+      <c r="B27" s="55">
         <v>42849</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="12" customHeight="1">
-      <c r="B28" s="69">
+      <c r="B28" s="55">
         <v>42850</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="12" customHeight="1">
-      <c r="B29" s="69">
+      <c r="B29" s="55">
         <v>42851</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="12" customHeight="1">
-      <c r="B30" s="69">
+      <c r="B30" s="55">
         <v>42852</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="12" customHeight="1">
-      <c r="B31" s="69">
+      <c r="B31" s="55">
         <v>42853</v>
       </c>
-      <c r="C31" s="70">
+      <c r="C31" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="12" customHeight="1">
-      <c r="B32" s="69">
+      <c r="B32" s="55">
         <v>42854</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="12" customHeight="1">
-      <c r="B33" s="69">
+      <c r="B33" s="55">
         <v>42855</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="12" customHeight="1">
-      <c r="B34" s="69">
+      <c r="B34" s="55">
         <v>42856</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="12" customHeight="1">
-      <c r="B35" s="69">
+      <c r="B35" s="55">
         <v>42857</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="12" customHeight="1">
-      <c r="B36" s="69">
+      <c r="B36" s="55">
         <v>42858</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="12" customHeight="1">
-      <c r="B37" s="69">
+      <c r="B37" s="55">
         <v>42859</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="12" customHeight="1">
-      <c r="B38" s="69">
+      <c r="B38" s="55">
         <v>42860</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="12" customHeight="1">
-      <c r="B39" s="69">
+      <c r="B39" s="55">
         <v>42861</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="12" customHeight="1">
-      <c r="B40" s="69">
+      <c r="B40" s="55">
         <v>42862</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="12" customHeight="1">
-      <c r="B41" s="69">
+      <c r="B41" s="55">
         <v>42863</v>
       </c>
-      <c r="C41" s="70">
+      <c r="C41" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="12" customHeight="1">
-      <c r="B42" s="69">
+      <c r="B42" s="55">
         <v>42864</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="12" customHeight="1">
-      <c r="B43" s="69">
+      <c r="B43" s="55">
         <v>42865</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="12" customHeight="1">
-      <c r="B44" s="69">
+      <c r="B44" s="55">
         <v>42866</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="12" customHeight="1">
-      <c r="B45" s="69">
+      <c r="B45" s="55">
         <v>42867</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="56">
         <v>293</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="12" customHeight="1">
-      <c r="B46" s="69">
+      <c r="B46" s="55">
         <v>42868</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="56">
         <v>306</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="12" customHeight="1">
-      <c r="B47" s="69">
+      <c r="B47" s="55">
         <v>42869</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="56">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="12" customHeight="1">
-      <c r="B48" s="69">
+      <c r="B48" s="55">
         <v>42870</v>
       </c>
-      <c r="C48" s="70">
+      <c r="C48" s="56">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="12" customHeight="1">
-      <c r="B49" s="69">
+      <c r="B49" s="55">
         <v>42871</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="56">
         <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="12" customHeight="1">
-      <c r="B50" s="69">
+      <c r="B50" s="55">
         <v>42872</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="56">
         <v>224</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="12" customHeight="1">
-      <c r="B51" s="69">
+      <c r="B51" s="55">
         <v>42873</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="56">
         <v>304</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="12" customHeight="1">
-      <c r="B52" s="69">
+      <c r="B52" s="55">
         <v>42874</v>
       </c>
-      <c r="C52" s="70">
+      <c r="C52" s="56">
         <v>429</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="12" customHeight="1">
-      <c r="B53" s="69">
+      <c r="B53" s="55">
         <v>42875</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="56">
         <v>440</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="12" customHeight="1">
-      <c r="B54" s="69">
+      <c r="B54" s="55">
         <v>42876</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="56">
         <v>459</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="12" customHeight="1">
-      <c r="B55" s="69">
+      <c r="B55" s="55">
         <v>42877</v>
       </c>
-      <c r="C55" s="70">
+      <c r="C55" s="56">
         <v>547</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="12" customHeight="1">
-      <c r="B56" s="69">
+      <c r="B56" s="55">
         <v>42878</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="56">
         <v>581</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="12" customHeight="1">
-      <c r="B57" s="69">
+      <c r="B57" s="55">
         <v>42879</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C57" s="56">
         <v>603</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="12" customHeight="1">
-      <c r="B58" s="69">
+      <c r="B58" s="55">
         <v>42880</v>
       </c>
-      <c r="C58" s="70">
+      <c r="C58" s="56">
         <v>642</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="12" customHeight="1">
-      <c r="B59" s="69">
+      <c r="B59" s="55">
         <v>42881</v>
       </c>
-      <c r="C59" s="70">
+      <c r="C59" s="56">
         <v>681</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="12" customHeight="1">
-      <c r="B60" s="69">
+      <c r="B60" s="55">
         <v>42882</v>
       </c>
-      <c r="C60" s="70">
+      <c r="C60" s="56">
         <v>661</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="12" customHeight="1">
-      <c r="B61" s="69">
+      <c r="B61" s="55">
         <v>42883</v>
       </c>
-      <c r="C61" s="70">
+      <c r="C61" s="56">
         <v>642</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="12" customHeight="1">
-      <c r="B62" s="69">
+      <c r="B62" s="55">
         <v>42884</v>
       </c>
-      <c r="C62" s="70">
+      <c r="C62" s="56">
         <v>711</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="12" customHeight="1">
-      <c r="B63" s="69">
+      <c r="B63" s="55">
         <v>42885</v>
       </c>
-      <c r="C63" s="70">
+      <c r="C63" s="56">
         <v>806</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="12" customHeight="1">
-      <c r="B64" s="69">
+      <c r="B64" s="55">
         <v>42886</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="56">
         <v>855</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1">
-      <c r="B65" s="69">
+      <c r="B65" s="55">
         <v>42887</v>
       </c>
-      <c r="C65" s="70">
+      <c r="C65" s="56">
         <v>925</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1">
-      <c r="B66" s="69">
+      <c r="B66" s="55">
         <v>42888</v>
       </c>
-      <c r="C66" s="70">
+      <c r="C66" s="56">
         <v>933</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1">
-      <c r="B67" s="69">
+      <c r="B67" s="55">
         <v>42889</v>
       </c>
-      <c r="C67" s="70">
+      <c r="C67" s="56">
         <v>888</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1">
-      <c r="B68" s="69">
+      <c r="B68" s="55">
         <v>42890</v>
       </c>
-      <c r="C68" s="70">
+      <c r="C68" s="56">
         <v>835</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1">
-      <c r="B69" s="69">
+      <c r="B69" s="55">
         <v>42891</v>
       </c>
-      <c r="C69" s="70">
+      <c r="C69" s="56">
         <v>918</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1">
-      <c r="B70" s="69">
+      <c r="B70" s="55">
         <v>42892</v>
       </c>
-      <c r="C70" s="70">
+      <c r="C70" s="56">
         <v>956</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1">
-      <c r="B71" s="69">
+      <c r="B71" s="55">
         <v>42893</v>
       </c>
-      <c r="C71" s="70">
+      <c r="C71" s="56">
         <v>983</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1">
-      <c r="B72" s="69">
+      <c r="B72" s="55">
         <v>42894</v>
       </c>
-      <c r="C72" s="70">
+      <c r="C72" s="56">
         <v>968</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1">
-      <c r="B73" s="69">
+      <c r="B73" s="55">
         <v>42895</v>
       </c>
-      <c r="C73" s="70">
+      <c r="C73" s="56">
         <v>950</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1">
-      <c r="B74" s="69">
+      <c r="B74" s="55">
         <v>42896</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="56">
         <v>947</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="12" customHeight="1">
-      <c r="B75" s="69">
+      <c r="B75" s="55">
         <v>42897</v>
       </c>
-      <c r="C75" s="70">
+      <c r="C75" s="56">
         <v>831</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1">
-      <c r="B76" s="69">
+      <c r="B76" s="55">
         <v>42898</v>
       </c>
-      <c r="C76" s="70">
+      <c r="C76" s="56">
         <v>987</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1">
-      <c r="B77" s="69">
+      <c r="B77" s="55">
         <v>42899</v>
       </c>
-      <c r="C77" s="70">
+      <c r="C77" s="56">
         <v>995</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1">
-      <c r="B78" s="69">
+      <c r="B78" s="55">
         <v>42900</v>
       </c>
-      <c r="C78" s="70">
+      <c r="C78" s="56">
         <v>1050</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1">
-      <c r="B79" s="69">
+      <c r="B79" s="55">
         <v>42901</v>
       </c>
-      <c r="C79" s="70">
+      <c r="C79" s="56">
         <v>1069</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1">
-      <c r="B80" s="69">
+      <c r="B80" s="55">
         <v>42902</v>
       </c>
-      <c r="C80" s="70">
+      <c r="C80" s="56">
         <v>1049</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="12" customHeight="1">
-      <c r="B81" s="69">
+      <c r="B81" s="55">
         <v>42903</v>
       </c>
-      <c r="C81" s="70">
+      <c r="C81" s="56">
         <v>962</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="12" customHeight="1">
-      <c r="B82" s="69">
+      <c r="B82" s="55">
         <v>42904</v>
       </c>
-      <c r="C82" s="70">
+      <c r="C82" s="56">
         <v>895</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="12" customHeight="1">
-      <c r="B83" s="69">
+      <c r="B83" s="55">
         <v>42905</v>
       </c>
-      <c r="C83" s="70">
+      <c r="C83" s="56">
         <v>1070</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="12" customHeight="1">
-      <c r="B84" s="69">
+      <c r="B84" s="55">
         <v>42906</v>
       </c>
-      <c r="C84" s="70">
+      <c r="C84" s="56">
         <v>1064</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="12" customHeight="1">
-      <c r="B85" s="69">
+      <c r="B85" s="55">
         <v>42907</v>
       </c>
-      <c r="C85" s="70">
+      <c r="C85" s="56">
         <v>1184</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="12" customHeight="1">
-      <c r="B86" s="69">
+      <c r="B86" s="55">
         <v>42908</v>
       </c>
-      <c r="C86" s="70">
+      <c r="C86" s="56">
         <v>1104</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="12" customHeight="1">
-      <c r="B87" s="69">
+      <c r="B87" s="55">
         <v>42909</v>
       </c>
-      <c r="C87" s="70">
+      <c r="C87" s="56">
         <v>1112</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="12" customHeight="1">
-      <c r="B88" s="69">
+      <c r="B88" s="55">
         <v>42910</v>
       </c>
-      <c r="C88" s="70">
+      <c r="C88" s="56">
         <v>1012</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="12" customHeight="1">
-      <c r="B89" s="69">
+      <c r="B89" s="55">
         <v>42911</v>
       </c>
-      <c r="C89" s="70">
+      <c r="C89" s="56">
         <v>886</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="12" customHeight="1">
-      <c r="B90" s="69">
+      <c r="B90" s="55">
         <v>42912</v>
       </c>
-      <c r="C90" s="70">
+      <c r="C90" s="56">
         <v>964</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="12" customHeight="1">
-      <c r="B91" s="69">
+      <c r="B91" s="55">
         <v>42913</v>
       </c>
-      <c r="C91" s="70">
+      <c r="C91" s="56">
         <v>1036</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="12" customHeight="1">
-      <c r="B92" s="69">
+      <c r="B92" s="55">
         <v>42914</v>
       </c>
-      <c r="C92" s="70">
+      <c r="C92" s="56">
         <v>1130</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="12" customHeight="1">
-      <c r="B93" s="69">
+      <c r="B93" s="55">
         <v>42915</v>
       </c>
-      <c r="C93" s="70">
+      <c r="C93" s="56">
         <v>1188</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="12" customHeight="1">
-      <c r="B94" s="69">
+      <c r="B94" s="55">
         <v>42916</v>
       </c>
-      <c r="C94" s="70">
+      <c r="C94" s="56">
         <v>1274</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="12" customHeight="1">
-      <c r="B95" s="69">
+      <c r="B95" s="55">
         <v>42917</v>
       </c>
-      <c r="C95" s="70">
+      <c r="C95" s="56">
         <v>1238</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="12" customHeight="1">
-      <c r="B96" s="69">
+      <c r="B96" s="55">
         <v>42918</v>
       </c>
-      <c r="C96" s="70">
+      <c r="C96" s="56">
         <v>1202</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1">
-      <c r="B97" s="69">
+      <c r="B97" s="55">
         <v>42919</v>
       </c>
-      <c r="C97" s="70">
+      <c r="C97" s="56">
         <v>1389</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1">
-      <c r="B98" s="69">
+      <c r="B98" s="55">
         <v>42920</v>
       </c>
-      <c r="C98" s="70">
+      <c r="C98" s="56">
         <v>1529</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1">
-      <c r="B99" s="69">
+      <c r="B99" s="55">
         <v>42921</v>
       </c>
-      <c r="C99" s="70">
+      <c r="C99" s="56">
         <v>1450</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1">
-      <c r="B100" s="69">
+      <c r="B100" s="55">
         <v>42922</v>
       </c>
-      <c r="C100" s="70">
+      <c r="C100" s="56">
         <v>1467</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1">
-      <c r="B101" s="69">
+      <c r="B101" s="55">
         <v>42923</v>
       </c>
-      <c r="C101" s="70">
+      <c r="C101" s="56">
         <v>1399</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1">
-      <c r="B102" s="69">
+      <c r="B102" s="55">
         <v>42924</v>
       </c>
-      <c r="C102" s="70">
+      <c r="C102" s="56">
         <v>1337</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1">
-      <c r="B103" s="69">
+      <c r="B103" s="55">
         <v>42925</v>
       </c>
-      <c r="C103" s="70">
+      <c r="C103" s="56">
         <v>1159</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1">
-      <c r="B104" s="69">
+      <c r="B104" s="55">
         <v>42926</v>
       </c>
-      <c r="C104" s="70">
+      <c r="C104" s="56">
         <v>1409</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1">
-      <c r="B105" s="69">
+      <c r="B105" s="55">
         <v>42927</v>
       </c>
-      <c r="C105" s="70">
+      <c r="C105" s="56">
         <v>1486</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1">
-      <c r="B106" s="69">
+      <c r="B106" s="55">
         <v>42928</v>
       </c>
-      <c r="C106" s="70">
+      <c r="C106" s="56">
         <v>1501</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1">
-      <c r="B107" s="69">
+      <c r="B107" s="55">
         <v>42929</v>
       </c>
-      <c r="C107" s="70">
+      <c r="C107" s="56">
         <v>1584</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1">
-      <c r="B108" s="69">
+      <c r="B108" s="55">
         <v>42930</v>
       </c>
-      <c r="C108" s="70">
+      <c r="C108" s="56">
         <v>1515</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1">
-      <c r="B109" s="69">
+      <c r="B109" s="55">
         <v>42931</v>
       </c>
-      <c r="C109" s="70">
+      <c r="C109" s="56">
         <v>1419</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1">
-      <c r="B110" s="69">
+      <c r="B110" s="55">
         <v>42932</v>
       </c>
-      <c r="C110" s="70">
+      <c r="C110" s="56">
         <v>1291</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1">
-      <c r="B111" s="69">
+      <c r="B111" s="55">
         <v>42933</v>
       </c>
-      <c r="C111" s="70">
+      <c r="C111" s="56">
         <v>1616</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1">
-      <c r="B112" s="69">
+      <c r="B112" s="55">
         <v>42934</v>
       </c>
-      <c r="C112" s="70">
+      <c r="C112" s="56">
         <v>1444</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1">
-      <c r="B113" s="69">
+      <c r="B113" s="55">
         <v>42935</v>
       </c>
-      <c r="C113" s="70">
+      <c r="C113" s="56">
         <v>1515</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1">
-      <c r="B114" s="69">
+      <c r="B114" s="55">
         <v>42936</v>
       </c>
-      <c r="C114" s="70">
+      <c r="C114" s="56">
         <v>1401</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1">
-      <c r="B115" s="69">
+      <c r="B115" s="55">
         <v>42937</v>
       </c>
-      <c r="C115" s="70">
+      <c r="C115" s="56">
         <v>1458</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1">
-      <c r="B116" s="69">
+      <c r="B116" s="55">
         <v>42938</v>
       </c>
-      <c r="C116" s="70">
+      <c r="C116" s="56">
         <v>1321</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1">
-      <c r="B117" s="69">
+      <c r="B117" s="55">
         <v>42939</v>
       </c>
-      <c r="C117" s="70">
+      <c r="C117" s="56">
         <v>1180</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1">
-      <c r="B118" s="69">
+      <c r="B118" s="55">
         <v>42940</v>
       </c>
-      <c r="C118" s="70">
+      <c r="C118" s="56">
         <v>1391</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1">
-      <c r="B119" s="69">
+      <c r="B119" s="55">
         <v>42941</v>
       </c>
-      <c r="C119" s="70">
+      <c r="C119" s="56">
         <v>1440</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1">
-      <c r="B120" s="69">
+      <c r="B120" s="55">
         <v>42942</v>
       </c>
-      <c r="C120" s="70">
+      <c r="C120" s="56">
         <v>1505</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1">
-      <c r="B121" s="69">
+      <c r="B121" s="55">
         <v>42943</v>
       </c>
-      <c r="C121" s="70">
+      <c r="C121" s="56">
         <v>1519</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1">
-      <c r="B122" s="69">
+      <c r="B122" s="55">
         <v>42944</v>
       </c>
-      <c r="C122" s="70">
+      <c r="C122" s="56">
         <v>1519</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1">
-      <c r="B123" s="69">
+      <c r="B123" s="55">
         <v>42945</v>
       </c>
-      <c r="C123" s="70">
+      <c r="C123" s="56">
         <v>1353</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1">
-      <c r="B124" s="69">
+      <c r="B124" s="55">
         <v>42946</v>
       </c>
-      <c r="C124" s="70">
+      <c r="C124" s="56">
         <v>1200</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1">
-      <c r="B125" s="69">
+      <c r="B125" s="55">
         <v>42947</v>
       </c>
-      <c r="C125" s="70">
+      <c r="C125" s="56">
         <v>1531</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1">
-      <c r="B126" s="69">
+      <c r="B126" s="55">
         <v>42948</v>
       </c>
-      <c r="C126" s="70">
+      <c r="C126" s="56">
         <v>1687</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1">
-      <c r="B127" s="69">
+      <c r="B127" s="55">
         <v>42949</v>
       </c>
-      <c r="C127" s="70">
+      <c r="C127" s="56">
         <v>1645</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1">
-      <c r="B128" s="69">
+      <c r="B128" s="55">
         <v>42950</v>
       </c>
-      <c r="C128" s="70">
+      <c r="C128" s="56">
         <v>1490</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1">
-      <c r="B129" s="69">
+      <c r="B129" s="55">
         <v>42951</v>
       </c>
-      <c r="C129" s="70">
+      <c r="C129" s="56">
         <v>1492</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1">
-      <c r="B130" s="69">
+      <c r="B130" s="55">
         <v>42952</v>
       </c>
-      <c r="C130" s="70">
+      <c r="C130" s="56">
         <v>1376</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1">
-      <c r="B131" s="69">
+      <c r="B131" s="55">
         <v>42953</v>
       </c>
-      <c r="C131" s="70">
+      <c r="C131" s="56">
         <v>1271</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1">
-      <c r="B132" s="69">
+      <c r="B132" s="55">
         <v>42954</v>
       </c>
-      <c r="C132" s="70">
+      <c r="C132" s="56">
         <v>1555</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1">
-      <c r="B133" s="69">
+      <c r="B133" s="55">
         <v>42955</v>
       </c>
-      <c r="C133" s="70">
+      <c r="C133" s="56">
         <v>1620</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1">
-      <c r="B134" s="69">
+      <c r="B134" s="55">
         <v>42956</v>
       </c>
-      <c r="C134" s="70">
+      <c r="C134" s="56">
         <v>1589</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1">
-      <c r="B135" s="69">
+      <c r="B135" s="55">
         <v>42957</v>
       </c>
-      <c r="C135" s="70">
+      <c r="C135" s="56">
         <v>1538</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1">
-      <c r="B136" s="69">
+      <c r="B136" s="55">
         <v>42958</v>
       </c>
-      <c r="C136" s="70">
+      <c r="C136" s="56">
         <v>1605</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1">
-      <c r="B137" s="69">
+      <c r="B137" s="55">
         <v>42959</v>
       </c>
-      <c r="C137" s="70">
+      <c r="C137" s="56">
         <v>1368</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1">
-      <c r="B138" s="69">
+      <c r="B138" s="55">
         <v>42960</v>
       </c>
-      <c r="C138" s="70">
+      <c r="C138" s="56">
         <v>1170</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1">
-      <c r="B139" s="69">
+      <c r="B139" s="55">
         <v>42961</v>
       </c>
-      <c r="C139" s="70">
+      <c r="C139" s="56">
         <v>1464</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1">
-      <c r="B140" s="69">
+      <c r="B140" s="55">
         <v>42962</v>
       </c>
-      <c r="C140" s="70">
+      <c r="C140" s="56">
         <v>1503</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1">
-      <c r="B141" s="69">
+      <c r="B141" s="55">
         <v>42963</v>
       </c>
-      <c r="C141" s="70">
+      <c r="C141" s="56">
         <v>1626</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1">
-      <c r="B142" s="69">
+      <c r="B142" s="55">
         <v>42964</v>
       </c>
-      <c r="C142" s="70">
+      <c r="C142" s="56">
         <v>1572</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1">
-      <c r="B143" s="69">
+      <c r="B143" s="55">
         <v>42965</v>
       </c>
-      <c r="C143" s="70">
+      <c r="C143" s="56">
         <v>1613</v>
       </c>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1">
-      <c r="B144" s="69">
+      <c r="B144" s="55">
         <v>42966</v>
       </c>
-      <c r="C144" s="70">
+      <c r="C144" s="56">
         <v>1506</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1">
-      <c r="B145" s="69">
+      <c r="B145" s="55">
         <v>42967</v>
       </c>
-      <c r="C145" s="70">
+      <c r="C145" s="56">
         <v>1301</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1">
-      <c r="B146" s="69">
+      <c r="B146" s="55">
         <v>42968</v>
       </c>
-      <c r="C146" s="70">
+      <c r="C146" s="56">
         <v>1612</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1">
-      <c r="B147" s="69">
+      <c r="B147" s="55">
         <v>42969</v>
       </c>
-      <c r="C147" s="70">
+      <c r="C147" s="56">
         <v>1690</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1">
-      <c r="B148" s="69">
+      <c r="B148" s="55">
         <v>42970</v>
       </c>
-      <c r="C148" s="70">
+      <c r="C148" s="56">
         <v>1697</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1">
-      <c r="B149" s="69">
+      <c r="B149" s="55">
         <v>42971</v>
       </c>
-      <c r="C149" s="70">
+      <c r="C149" s="56">
         <v>1706</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1">
-      <c r="B150" s="69">
+      <c r="B150" s="55">
         <v>42972</v>
       </c>
-      <c r="C150" s="70">
+      <c r="C150" s="56">
         <v>1581</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1">
-      <c r="B151" s="69">
+      <c r="B151" s="55">
         <v>42973</v>
       </c>
-      <c r="C151" s="70">
+      <c r="C151" s="56">
         <v>1477</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1">
-      <c r="B152" s="69">
+      <c r="B152" s="55">
         <v>42974</v>
       </c>
-      <c r="C152" s="70">
+      <c r="C152" s="56">
         <v>1344</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1">
-      <c r="B153" s="69">
+      <c r="B153" s="55">
         <v>42975</v>
       </c>
-      <c r="C153" s="70">
+      <c r="C153" s="56">
         <v>1727</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1">
-      <c r="B154" s="69">
+      <c r="B154" s="55">
         <v>42976</v>
       </c>
-      <c r="C154" s="70">
+      <c r="C154" s="56">
         <v>1817</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1">
-      <c r="B155" s="69">
+      <c r="B155" s="55">
         <v>42977</v>
       </c>
-      <c r="C155" s="70">
+      <c r="C155" s="56">
         <v>1719</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="12" customHeight="1">
-      <c r="B156" s="69">
+      <c r="B156" s="55">
         <v>42978</v>
       </c>
-      <c r="C156" s="70">
+      <c r="C156" s="56">
         <v>1803</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1">
-      <c r="B157" s="69">
+      <c r="B157" s="55">
         <v>42979</v>
       </c>
-      <c r="C157" s="70">
+      <c r="C157" s="56">
         <v>1546</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1">
-      <c r="B158" s="69">
+      <c r="B158" s="55">
         <v>42980</v>
       </c>
-      <c r="C158" s="70">
+      <c r="C158" s="56">
         <v>1436</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1">
-      <c r="B159" s="69">
+      <c r="B159" s="55">
         <v>42981</v>
       </c>
-      <c r="C159" s="70">
+      <c r="C159" s="56">
         <v>1321</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1">
-      <c r="B160" s="69">
+      <c r="B160" s="55">
         <v>42982</v>
       </c>
-      <c r="C160" s="70">
+      <c r="C160" s="56">
         <v>1558</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1">
-      <c r="B161" s="69">
+      <c r="B161" s="55">
         <v>42983</v>
       </c>
-      <c r="C161" s="70">
+      <c r="C161" s="56">
         <v>1843</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1">
-      <c r="B162" s="69">
+      <c r="B162" s="55">
         <v>42984</v>
       </c>
-      <c r="C162" s="70">
+      <c r="C162" s="56">
         <v>1769</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1">
-      <c r="B163" s="69">
+      <c r="B163" s="55">
         <v>42985</v>
       </c>
-      <c r="C163" s="70">
+      <c r="C163" s="56">
         <v>1765</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1">
-      <c r="B164" s="69">
+      <c r="B164" s="55">
         <v>42986</v>
       </c>
-      <c r="C164" s="70">
+      <c r="C164" s="56">
         <v>1814</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1">
-      <c r="B165" s="69">
+      <c r="B165" s="55">
         <v>42987</v>
       </c>
-      <c r="C165" s="70">
+      <c r="C165" s="56">
         <v>1497</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1">
-      <c r="B166" s="69">
+      <c r="B166" s="55">
         <v>42988</v>
       </c>
-      <c r="C166" s="70">
+      <c r="C166" s="56">
         <v>1415</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1">
-      <c r="B167" s="69">
+      <c r="B167" s="55">
         <v>42989</v>
       </c>
-      <c r="C167" s="70">
+      <c r="C167" s="56">
         <v>1782</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1">
-      <c r="B168" s="69">
+      <c r="B168" s="55">
         <v>42990</v>
       </c>
-      <c r="C168" s="70">
+      <c r="C168" s="56">
         <v>1865</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1">
-      <c r="B169" s="69">
+      <c r="B169" s="55">
         <v>42991</v>
       </c>
-      <c r="C169" s="70">
+      <c r="C169" s="56">
         <v>1966</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1">
-      <c r="B170" s="69">
+      <c r="B170" s="55">
         <v>42992</v>
       </c>
-      <c r="C170" s="70">
+      <c r="C170" s="56">
         <v>2023</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1">
-      <c r="B171" s="69">
+      <c r="B171" s="55">
         <v>42993</v>
       </c>
-      <c r="C171" s="70">
+      <c r="C171" s="56">
         <v>2015</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1">
-      <c r="B172" s="69">
+      <c r="B172" s="55">
         <v>42994</v>
       </c>
-      <c r="C172" s="70">
+      <c r="C172" s="56">
         <v>1854</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1">
-      <c r="B173" s="69">
+      <c r="B173" s="55">
         <v>42995</v>
       </c>
-      <c r="C173" s="70">
+      <c r="C173" s="56">
         <v>1647</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1">
-      <c r="B174" s="69">
+      <c r="B174" s="55">
         <v>42996</v>
       </c>
-      <c r="C174" s="70">
+      <c r="C174" s="56">
         <v>2067</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1">
-      <c r="B175" s="69">
+      <c r="B175" s="55">
         <v>42997</v>
       </c>
-      <c r="C175" s="70">
+      <c r="C175" s="56">
         <v>2154</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1">
-      <c r="B176" s="69">
+      <c r="B176" s="55">
         <v>42998</v>
       </c>
-      <c r="C176" s="70">
+      <c r="C176" s="56">
         <v>2136</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1">
-      <c r="B177" s="69">
+      <c r="B177" s="55">
         <v>42999</v>
       </c>
-      <c r="C177" s="70">
+      <c r="C177" s="56">
         <v>2075</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1">
-      <c r="B178" s="69">
+      <c r="B178" s="55">
         <v>43000</v>
       </c>
-      <c r="C178" s="70">
+      <c r="C178" s="56">
         <v>2234</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1">
-      <c r="B179" s="69">
+      <c r="B179" s="55">
         <v>43001</v>
       </c>
-      <c r="C179" s="70">
+      <c r="C179" s="56">
         <v>1944</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1">
-      <c r="B180" s="69">
+      <c r="B180" s="55">
         <v>43002</v>
       </c>
-      <c r="C180" s="70">
+      <c r="C180" s="56">
         <v>1635</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1">
-      <c r="B181" s="69">
+      <c r="B181" s="55">
         <v>43003</v>
       </c>
-      <c r="C181" s="70">
+      <c r="C181" s="56">
         <v>2197</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1">
-      <c r="B182" s="69">
+      <c r="B182" s="55">
         <v>43004</v>
       </c>
-      <c r="C182" s="70">
+      <c r="C182" s="56">
         <v>2230</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1">
-      <c r="B183" s="69">
+      <c r="B183" s="55">
         <v>43005</v>
       </c>
-      <c r="C183" s="70">
+      <c r="C183" s="56">
         <v>2229</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1">
-      <c r="B184" s="69">
+      <c r="B184" s="55">
         <v>43006</v>
       </c>
-      <c r="C184" s="70">
+      <c r="C184" s="56">
         <v>2254</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1">
-      <c r="B185" s="69">
+      <c r="B185" s="55">
         <v>43007</v>
       </c>
-      <c r="C185" s="70">
+      <c r="C185" s="56">
         <v>2115</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1">
-      <c r="B186" s="69">
+      <c r="B186" s="55">
         <v>43008</v>
       </c>
-      <c r="C186" s="70">
+      <c r="C186" s="56">
         <v>1883</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1">
-      <c r="B187" s="69">
+      <c r="B187" s="55">
         <v>43009</v>
       </c>
-      <c r="C187" s="70">
+      <c r="C187" s="56">
         <v>1716</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1">
-      <c r="B188" s="69">
+      <c r="B188" s="55">
         <v>43010</v>
       </c>
-      <c r="C188" s="70">
+      <c r="C188" s="56">
         <v>2020</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1">
-      <c r="B189" s="69">
+      <c r="B189" s="55">
         <v>43011</v>
       </c>
-      <c r="C189" s="70">
+      <c r="C189" s="56">
         <v>2194</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1">
-      <c r="B190" s="69">
+      <c r="B190" s="55">
         <v>43012</v>
       </c>
-      <c r="C190" s="70">
+      <c r="C190" s="56">
         <v>2252</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1">
-      <c r="B191" s="69">
+      <c r="B191" s="55">
         <v>43013</v>
       </c>
-      <c r="C191" s="70">
+      <c r="C191" s="56">
         <v>2201</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="12" customHeight="1">
-      <c r="B192" s="69">
+      <c r="B192" s="55">
         <v>43014</v>
       </c>
-      <c r="C192" s="70">
+      <c r="C192" s="56">
         <v>2138</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="12" customHeight="1">
-      <c r="B193" s="69">
+      <c r="B193" s="55">
         <v>43015</v>
       </c>
-      <c r="C193" s="70">
+      <c r="C193" s="56">
         <v>2048</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="12" customHeight="1">
-      <c r="B194" s="69">
+      <c r="B194" s="55">
         <v>43016</v>
       </c>
-      <c r="C194" s="70">
+      <c r="C194" s="56">
         <v>1765</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="12" customHeight="1">
-      <c r="B195" s="69">
+      <c r="B195" s="55">
         <v>43017</v>
       </c>
-      <c r="C195" s="70">
+      <c r="C195" s="56">
         <v>2283</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="12" customHeight="1">
-      <c r="B196" s="69">
+      <c r="B196" s="55">
         <v>43018</v>
       </c>
-      <c r="C196" s="70">
+      <c r="C196" s="56">
         <v>2424</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="12" customHeight="1">
-      <c r="B197" s="69">
+      <c r="B197" s="55">
         <v>43019</v>
       </c>
-      <c r="C197" s="70">
+      <c r="C197" s="56">
         <v>2285</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="12" customHeight="1">
-      <c r="B198" s="69">
+      <c r="B198" s="55">
         <v>43020</v>
       </c>
-      <c r="C198" s="70">
+      <c r="C198" s="56">
         <v>2282</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="12" customHeight="1">
-      <c r="B199" s="69">
+      <c r="B199" s="55">
         <v>43021</v>
       </c>
-      <c r="C199" s="70">
+      <c r="C199" s="56">
         <v>2234</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="12" customHeight="1">
-      <c r="B200" s="69">
+      <c r="B200" s="55">
         <v>43022</v>
       </c>
-      <c r="C200" s="70">
+      <c r="C200" s="56">
         <v>1990</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="12" customHeight="1">
-      <c r="B201" s="69">
+      <c r="B201" s="55">
         <v>43023</v>
       </c>
-      <c r="C201" s="70">
+      <c r="C201" s="56">
         <v>1887</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="12" customHeight="1">
-      <c r="B202" s="69">
+      <c r="B202" s="55">
         <v>43024</v>
       </c>
-      <c r="C202" s="70">
+      <c r="C202" s="56">
         <v>2316</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="12" customHeight="1">
-      <c r="B203" s="69">
+      <c r="B203" s="55">
         <v>43025</v>
       </c>
-      <c r="C203" s="70">
+      <c r="C203" s="56">
         <v>2490</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="12" customHeight="1">
-      <c r="B204" s="69">
+      <c r="B204" s="55">
         <v>43026</v>
       </c>
-      <c r="C204" s="70">
+      <c r="C204" s="56">
         <v>2469</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="12" customHeight="1">
-      <c r="B205" s="69">
+      <c r="B205" s="55">
         <v>43027</v>
       </c>
-      <c r="C205" s="70">
+      <c r="C205" s="56">
         <v>2389</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="12" customHeight="1">
-      <c r="B206" s="69">
+      <c r="B206" s="55">
         <v>43028</v>
       </c>
-      <c r="C206" s="70">
+      <c r="C206" s="56">
         <v>2206</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="12" customHeight="1">
-      <c r="B207" s="69">
+      <c r="B207" s="55">
         <v>43029</v>
       </c>
-      <c r="C207" s="70">
+      <c r="C207" s="56">
         <v>2025</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="12" customHeight="1">
-      <c r="B208" s="69">
+      <c r="B208" s="55">
         <v>43030</v>
       </c>
-      <c r="C208" s="70">
+      <c r="C208" s="56">
         <v>1865</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="12" customHeight="1">
-      <c r="B209" s="69">
+      <c r="B209" s="55">
         <v>43031</v>
       </c>
-      <c r="C209" s="70">
+      <c r="C209" s="56">
         <v>2415</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="12" customHeight="1">
-      <c r="B210" s="69">
+      <c r="B210" s="55">
         <v>43032</v>
       </c>
-      <c r="C210" s="70">
+      <c r="C210" s="56">
         <v>2447</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="12" customHeight="1">
-      <c r="B211" s="69">
+      <c r="B211" s="55">
         <v>43033</v>
       </c>
-      <c r="C211" s="70">
+      <c r="C211" s="56">
         <v>2621</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="12" customHeight="1">
-      <c r="B212" s="69">
+      <c r="B212" s="55">
         <v>43034</v>
       </c>
-      <c r="C212" s="70">
+      <c r="C212" s="56">
         <v>2576</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="12" customHeight="1">
-      <c r="B213" s="69">
+      <c r="B213" s="55">
         <v>43035</v>
       </c>
-      <c r="C213" s="70">
+      <c r="C213" s="56">
         <v>2488</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="12" customHeight="1">
-      <c r="B214" s="69">
+      <c r="B214" s="55">
         <v>43036</v>
       </c>
-      <c r="C214" s="70">
+      <c r="C214" s="56">
         <v>2239</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="12" customHeight="1">
-      <c r="B215" s="69">
+      <c r="B215" s="55">
         <v>43037</v>
       </c>
-      <c r="C215" s="70">
+      <c r="C215" s="56">
         <v>1942</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="12" customHeight="1">
-      <c r="B216" s="69">
+      <c r="B216" s="55">
         <v>43038</v>
       </c>
-      <c r="C216" s="70">
+      <c r="C216" s="56">
         <v>2576</v>
       </c>
     </row>
     <row r="217" spans="2:3" ht="12" customHeight="1">
-      <c r="B217" s="69">
+      <c r="B217" s="55">
         <v>43039</v>
       </c>
-      <c r="C217" s="70">
+      <c r="C217" s="56">
         <v>2685</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="12" customHeight="1">
-      <c r="B218" s="69">
+      <c r="B218" s="55">
         <v>43040</v>
       </c>
-      <c r="C218" s="70">
+      <c r="C218" s="56">
         <v>2627</v>
       </c>
     </row>
     <row r="219" spans="2:3" ht="12" customHeight="1">
-      <c r="B219" s="69">
+      <c r="B219" s="55">
         <v>43041</v>
       </c>
-      <c r="C219" s="70">
+      <c r="C219" s="56">
         <v>2591</v>
       </c>
     </row>
     <row r="220" spans="2:3" ht="12" customHeight="1">
-      <c r="B220" s="69">
+      <c r="B220" s="55">
         <v>43042</v>
       </c>
-      <c r="C220" s="70">
+      <c r="C220" s="56">
         <v>2553</v>
       </c>
     </row>
     <row r="221" spans="2:3" ht="12" customHeight="1">
-      <c r="B221" s="69">
+      <c r="B221" s="55">
         <v>43043</v>
       </c>
-      <c r="C221" s="70">
+      <c r="C221" s="56">
         <v>2160</v>
       </c>
     </row>
     <row r="222" spans="2:3" ht="12" customHeight="1">
-      <c r="B222" s="69">
+      <c r="B222" s="55">
         <v>43044</v>
       </c>
-      <c r="C222" s="70">
+      <c r="C222" s="56">
         <v>1824</v>
       </c>
     </row>
     <row r="223" spans="2:3" ht="12" customHeight="1">
-      <c r="B223" s="69">
+      <c r="B223" s="55">
         <v>43045</v>
       </c>
-      <c r="C223" s="70">
+      <c r="C223" s="56">
         <v>2364</v>
       </c>
     </row>
     <row r="224" spans="2:3" ht="12" customHeight="1">
-      <c r="B224" s="69">
+      <c r="B224" s="55">
         <v>43046</v>
       </c>
-      <c r="C224" s="70">
+      <c r="C224" s="56">
         <v>2629</v>
       </c>
     </row>
     <row r="225" spans="2:3" ht="12" customHeight="1">
-      <c r="B225" s="69">
+      <c r="B225" s="55">
         <v>43047</v>
       </c>
-      <c r="C225" s="70">
+      <c r="C225" s="56">
         <v>2953</v>
       </c>
     </row>
     <row r="226" spans="2:3" ht="12" customHeight="1">
-      <c r="B226" s="69">
+      <c r="B226" s="55">
         <v>43048</v>
       </c>
-      <c r="C226" s="70">
+      <c r="C226" s="56">
         <v>2859</v>
       </c>
     </row>
     <row r="227" spans="2:3" ht="12" customHeight="1">
-      <c r="B227" s="69">
+      <c r="B227" s="55">
         <v>43049</v>
       </c>
-      <c r="C227" s="70">
+      <c r="C227" s="56">
         <v>2840</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="12" customHeight="1">
-      <c r="B228" s="69">
+      <c r="B228" s="55">
         <v>43050</v>
       </c>
-      <c r="C228" s="70">
+      <c r="C228" s="56">
         <v>2493</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="12" customHeight="1">
-      <c r="B229" s="69">
+      <c r="B229" s="55">
         <v>43051</v>
       </c>
-      <c r="C229" s="70">
+      <c r="C229" s="56">
         <v>2155</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="12" customHeight="1">
-      <c r="B230" s="69">
+      <c r="B230" s="55">
         <v>43052</v>
       </c>
-      <c r="C230" s="70">
+      <c r="C230" s="56">
         <v>2808</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="12" customHeight="1">
-      <c r="B231" s="69">
+      <c r="B231" s="55">
         <v>43053</v>
       </c>
-      <c r="C231" s="70">
+      <c r="C231" s="56">
         <v>2867</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="12" customHeight="1">
-      <c r="B232" s="69">
+      <c r="B232" s="55">
         <v>43054</v>
       </c>
-      <c r="C232" s="70">
+      <c r="C232" s="56">
         <v>2876</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="12" customHeight="1">
-      <c r="B233" s="69">
+      <c r="B233" s="55">
         <v>43055</v>
       </c>
-      <c r="C233" s="70">
+      <c r="C233" s="56">
         <v>2916</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="12" customHeight="1">
-      <c r="B234" s="69">
+      <c r="B234" s="55">
         <v>43056</v>
       </c>
-      <c r="C234" s="70">
+      <c r="C234" s="56">
         <v>2842</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="12" customHeight="1">
-      <c r="B235" s="69">
+      <c r="B235" s="55">
         <v>43057</v>
       </c>
-      <c r="C235" s="70">
+      <c r="C235" s="56">
         <v>2457</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="12" customHeight="1">
-      <c r="B236" s="69">
+      <c r="B236" s="55">
         <v>43058</v>
       </c>
-      <c r="C236" s="70">
+      <c r="C236" s="56">
         <v>2134</v>
       </c>
     </row>
     <row r="237" spans="2:3" ht="12" customHeight="1">
-      <c r="B237" s="69">
+      <c r="B237" s="55">
         <v>43059</v>
       </c>
-      <c r="C237" s="70">
+      <c r="C237" s="56">
         <v>2683</v>
       </c>
     </row>
     <row r="238" spans="2:3" ht="12" customHeight="1">
-      <c r="B238" s="69">
+      <c r="B238" s="55">
         <v>43060</v>
       </c>
-      <c r="C238" s="70">
+      <c r="C238" s="56">
         <v>2936</v>
       </c>
     </row>
     <row r="239" spans="2:3" ht="12" customHeight="1">
-      <c r="B239" s="69">
+      <c r="B239" s="55">
         <v>43061</v>
       </c>
-      <c r="C239" s="70">
+      <c r="C239" s="56">
         <v>2866</v>
       </c>
     </row>
     <row r="240" spans="2:3" ht="12" customHeight="1">
-      <c r="B240" s="69">
+      <c r="B240" s="55">
         <v>43062</v>
       </c>
-      <c r="C240" s="70">
+      <c r="C240" s="56">
         <v>2923</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="12" customHeight="1">
-      <c r="B241" s="69">
+      <c r="B241" s="55">
         <v>43063</v>
       </c>
-      <c r="C241" s="70">
+      <c r="C241" s="56">
         <v>2752</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="12" customHeight="1">
-      <c r="B242" s="69">
+      <c r="B242" s="55">
         <v>43064</v>
       </c>
-      <c r="C242" s="70">
+      <c r="C242" s="56">
         <v>2508</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="12" customHeight="1">
-      <c r="B243" s="69">
+      <c r="B243" s="55">
         <v>43065</v>
       </c>
-      <c r="C243" s="70">
+      <c r="C243" s="56">
         <v>2114</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="12" customHeight="1">
-      <c r="B244" s="69">
+      <c r="B244" s="55">
         <v>43066</v>
       </c>
-      <c r="C244" s="70">
+      <c r="C244" s="56">
         <v>2792</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="12" customHeight="1">
-      <c r="B245" s="69">
+      <c r="B245" s="55">
         <v>43067</v>
       </c>
-      <c r="C245" s="70">
+      <c r="C245" s="56">
         <v>2860</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="12" customHeight="1">
-      <c r="B246" s="69">
+      <c r="B246" s="55">
         <v>43068</v>
       </c>
-      <c r="C246" s="70">
+      <c r="C246" s="56">
         <v>3050</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="12" customHeight="1">
-      <c r="B247" s="69">
+      <c r="B247" s="55">
         <v>43069</v>
       </c>
-      <c r="C247" s="70">
+      <c r="C247" s="56">
         <v>2901</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="12" customHeight="1">
-      <c r="B248" s="69">
+      <c r="B248" s="55">
         <v>43070</v>
       </c>
-      <c r="C248" s="70">
+      <c r="C248" s="56">
         <v>2655</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="12" customHeight="1">
-      <c r="B249" s="69">
+      <c r="B249" s="55">
         <v>43071</v>
       </c>
-      <c r="C249" s="70">
+      <c r="C249" s="56">
         <v>2422</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="12" customHeight="1">
-      <c r="B250" s="69">
+      <c r="B250" s="55">
         <v>43072</v>
       </c>
-      <c r="C250" s="70">
+      <c r="C250" s="56">
         <v>2042</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="12" customHeight="1">
-      <c r="B251" s="69">
+      <c r="B251" s="55">
         <v>43073</v>
       </c>
-      <c r="C251" s="70">
+      <c r="C251" s="56">
         <v>2824</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="12" customHeight="1">
-      <c r="B252" s="69">
+      <c r="B252" s="55">
         <v>43074</v>
       </c>
-      <c r="C252" s="70">
+      <c r="C252" s="56">
         <v>2950</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="12" customHeight="1">
-      <c r="B253" s="69">
+      <c r="B253" s="55">
         <v>43075</v>
       </c>
-      <c r="C253" s="70">
+      <c r="C253" s="56">
         <v>2895</v>
       </c>
     </row>
     <row r="254" spans="2:3" ht="12" customHeight="1">
-      <c r="B254" s="69">
+      <c r="B254" s="55">
         <v>43076</v>
       </c>
-      <c r="C254" s="70">
+      <c r="C254" s="56">
         <v>2909</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="12" customHeight="1">
-      <c r="B255" s="69">
+      <c r="B255" s="55">
         <v>43077</v>
       </c>
-      <c r="C255" s="70">
+      <c r="C255" s="56">
         <v>2796</v>
       </c>
     </row>
     <row r="256" spans="2:3" ht="12" customHeight="1">
-      <c r="B256" s="69">
+      <c r="B256" s="55">
         <v>43078</v>
       </c>
-      <c r="C256" s="70">
+      <c r="C256" s="56">
         <v>2501</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="12" customHeight="1">
-      <c r="B257" s="69">
+      <c r="B257" s="55">
         <v>43079</v>
       </c>
-      <c r="C257" s="70">
+      <c r="C257" s="56">
         <v>2086</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="12" customHeight="1">
-      <c r="B258" s="69">
+      <c r="B258" s="55">
         <v>43080</v>
       </c>
-      <c r="C258" s="70">
+      <c r="C258" s="56">
         <v>2700</v>
       </c>
     </row>
     <row r="259" spans="2:3" ht="12" customHeight="1">
-      <c r="B259" s="69">
+      <c r="B259" s="55">
         <v>43081</v>
       </c>
-      <c r="C259" s="70">
+      <c r="C259" s="56">
         <v>2823</v>
       </c>
     </row>
     <row r="260" spans="2:3" ht="12" customHeight="1">
-      <c r="B260" s="69">
+      <c r="B260" s="55">
         <v>43082</v>
       </c>
-      <c r="C260" s="70">
+      <c r="C260" s="56">
         <v>2925</v>
       </c>
     </row>
     <row r="261" spans="2:3" ht="12" customHeight="1">
-      <c r="B261" s="69">
+      <c r="B261" s="55">
         <v>43083</v>
       </c>
-      <c r="C261" s="70">
+      <c r="C261" s="56">
         <v>2865</v>
       </c>
     </row>
     <row r="262" spans="2:3" ht="12" customHeight="1">
-      <c r="B262" s="69">
+      <c r="B262" s="55">
         <v>43084</v>
       </c>
-      <c r="C262" s="70">
+      <c r="C262" s="56">
         <v>2671</v>
       </c>
     </row>
     <row r="263" spans="2:3" ht="12" customHeight="1">
-      <c r="B263" s="69">
+      <c r="B263" s="55">
         <v>43085</v>
       </c>
-      <c r="C263" s="70">
+      <c r="C263" s="56">
         <v>2379</v>
       </c>
     </row>
     <row r="264" spans="2:3" ht="12" customHeight="1">
-      <c r="B264" s="69">
+      <c r="B264" s="55">
         <v>43086</v>
       </c>
-      <c r="C264" s="70">
+      <c r="C264" s="56">
         <v>1943</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="12" customHeight="1">
-      <c r="B265" s="69">
+      <c r="B265" s="55">
         <v>43087</v>
       </c>
-      <c r="C265" s="70">
+      <c r="C265" s="56">
         <v>2725</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="12" customHeight="1">
-      <c r="B266" s="69">
+      <c r="B266" s="55">
         <v>43088</v>
       </c>
-      <c r="C266" s="70">
+      <c r="C266" s="56">
         <v>2967</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="12" customHeight="1">
-      <c r="B267" s="69">
+      <c r="B267" s="55">
         <v>43089</v>
       </c>
-      <c r="C267" s="70">
+      <c r="C267" s="56">
         <v>2840</v>
       </c>
     </row>
     <row r="268" spans="2:3" ht="12" customHeight="1">
-      <c r="B268" s="69">
+      <c r="B268" s="55">
         <v>43090</v>
       </c>
-      <c r="C268" s="70">
+      <c r="C268" s="56">
         <v>2847</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="12" customHeight="1">
-      <c r="B269" s="69">
+      <c r="B269" s="55">
         <v>43091</v>
       </c>
-      <c r="C269" s="70">
+      <c r="C269" s="56">
         <v>2982</v>
       </c>
     </row>
     <row r="270" spans="2:3" ht="12" customHeight="1">
-      <c r="B270" s="69">
+      <c r="B270" s="55">
         <v>43092</v>
       </c>
-      <c r="C270" s="70">
+      <c r="C270" s="56">
         <v>2538</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="12" customHeight="1">
-      <c r="B271" s="69">
+      <c r="B271" s="55">
         <v>43093</v>
       </c>
-      <c r="C271" s="70">
+      <c r="C271" s="56">
         <v>2144</v>
       </c>
     </row>
     <row r="272" spans="2:3" ht="12" customHeight="1">
-      <c r="B272" s="69">
+      <c r="B272" s="55">
         <v>43094</v>
       </c>
-      <c r="C272" s="70">
+      <c r="C272" s="56">
         <v>2421</v>
       </c>
     </row>
     <row r="273" spans="2:3" ht="12" customHeight="1">
-      <c r="B273" s="69">
+      <c r="B273" s="55">
         <v>43095</v>
       </c>
-      <c r="C273" s="70">
+      <c r="C273" s="56">
         <v>2675</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="12" customHeight="1">
-      <c r="B274" s="69">
+      <c r="B274" s="55">
         <v>43096</v>
       </c>
-      <c r="C274" s="70">
+      <c r="C274" s="56">
         <v>2957</v>
       </c>
     </row>
     <row r="275" spans="2:3" ht="12" customHeight="1">
-      <c r="B275" s="69">
+      <c r="B275" s="55">
         <v>43097</v>
       </c>
-      <c r="C275" s="70">
+      <c r="C275" s="56">
         <v>3049</v>
       </c>
     </row>
     <row r="276" spans="2:3" ht="12" customHeight="1">
-      <c r="B276" s="69">
+      <c r="B276" s="55">
         <v>43098</v>
       </c>
-      <c r="C276" s="70">
+      <c r="C276" s="56">
         <v>2859</v>
       </c>
     </row>
     <row r="277" spans="2:3" ht="12" customHeight="1">
-      <c r="B277" s="69">
+      <c r="B277" s="55">
         <v>43099</v>
       </c>
-      <c r="C277" s="70">
+      <c r="C277" s="56">
         <v>2430</v>
       </c>
     </row>
     <row r="278" spans="2:3" ht="12" customHeight="1">
-      <c r="B278" s="69">
+      <c r="B278" s="55">
         <v>43100</v>
       </c>
-      <c r="C278" s="70">
+      <c r="C278" s="56">
         <v>1970</v>
       </c>
     </row>
@@ -5091,17 +5076,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="61.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -5110,887 +5095,887 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="27" customHeight="1">
-      <c r="B3" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="4" spans="2:4" ht="12" customHeight="1">
-      <c r="B4" s="73">
+      <c r="B4" s="59">
         <v>43009</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="60">
         <v>0.40677984</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="60">
         <v>4.2372899999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="12" customHeight="1">
-      <c r="B5" s="73">
+      <c r="B5" s="59">
         <v>43010</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="60">
         <v>0.39947413999999998</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="60">
         <v>5.084748E-2</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="12" customHeight="1">
-      <c r="B6" s="73">
+      <c r="B6" s="59">
         <v>43011</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="60">
         <v>0.31355946000000001</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="60">
         <v>5.084748E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="12" customHeight="1">
-      <c r="B7" s="73">
+      <c r="B7" s="59">
         <v>43012</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="60">
         <v>0.61016976000000001</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="12" customHeight="1">
-      <c r="B8" s="73">
+      <c r="B8" s="59">
         <v>43013</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="60">
         <v>0.38135609999999998</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="12" customHeight="1">
-      <c r="B9" s="73">
+      <c r="B9" s="59">
         <v>43014</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="60">
         <v>0.36601414999999998</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="12" customHeight="1">
-      <c r="B10" s="73">
+      <c r="B10" s="59">
         <v>43015</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="60">
         <v>0.44067815999999999</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="12" customHeight="1">
-      <c r="B11" s="73">
+      <c r="B11" s="59">
         <v>43016</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="60">
         <v>0.77966135999999997</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="12" customHeight="1">
-      <c r="B12" s="73">
+      <c r="B12" s="59">
         <v>43017</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="60">
         <v>0.44915273999999999</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12" customHeight="1">
-      <c r="B13" s="73">
+      <c r="B13" s="59">
         <v>43018</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="60">
         <v>0.79661051999999999</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="12" customHeight="1">
-      <c r="B14" s="73">
+      <c r="B14" s="59">
         <v>43019</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="60">
         <v>0.44067815999999999</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="12" customHeight="1">
-      <c r="B15" s="73">
+      <c r="B15" s="59">
         <v>43020</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="60">
         <v>0.33898319999999998</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="12" customHeight="1">
-      <c r="B16" s="73">
+      <c r="B16" s="59">
         <v>43021</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="60">
         <v>0.36440694000000001</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="60">
         <v>4.2372899999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="12" customHeight="1">
-      <c r="B17" s="73">
+      <c r="B17" s="59">
         <v>43022</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="60">
         <v>0.60169518</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="60">
         <v>3.3898320000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="12" customHeight="1">
-      <c r="B18" s="73">
+      <c r="B18" s="59">
         <v>43023</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="60">
         <v>0.44067815999999999</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="12" customHeight="1">
-      <c r="B19" s="73">
+      <c r="B19" s="59">
         <v>43024</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="60">
         <v>0.41525442000000001</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="60">
         <v>4.2372899999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="12" customHeight="1">
-      <c r="B20" s="73">
+      <c r="B20" s="59">
         <v>43025</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="60">
         <v>0.77966135999999997</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="60">
         <v>4.2372899999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="12" customHeight="1">
-      <c r="B21" s="73">
+      <c r="B21" s="59">
         <v>43026</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="60">
         <v>0.65254266000000005</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="12" customHeight="1">
-      <c r="B22" s="73">
+      <c r="B22" s="59">
         <v>43027</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="60">
         <v>0.42372900000000002</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="60">
         <v>5.084748E-2</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="12" customHeight="1">
-      <c r="B23" s="73">
+      <c r="B23" s="59">
         <v>43028</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="60">
         <v>0.56779685999999996</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="60">
         <v>3.4044430000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="12" customHeight="1">
-      <c r="B24" s="73">
+      <c r="B24" s="59">
         <v>43029</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="60">
         <v>0.44915273999999999</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="12" customHeight="1">
-      <c r="B25" s="73">
+      <c r="B25" s="59">
         <v>43030</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="60">
         <v>0.40677984</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="12" customHeight="1">
-      <c r="B26" s="73">
+      <c r="B26" s="59">
         <v>43031</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="60">
         <v>1.1610174600000001</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="60">
         <v>0.10169496</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="12" customHeight="1">
-      <c r="B27" s="73">
+      <c r="B27" s="59">
         <v>43032</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="60">
         <v>0.57627143999999997</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="12" customHeight="1">
-      <c r="B28" s="73">
+      <c r="B28" s="59">
         <v>43033</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="60">
         <v>0.57627143999999997</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="60">
         <v>5.9322060000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="12" customHeight="1">
-      <c r="B29" s="73">
+      <c r="B29" s="59">
         <v>43034</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="60">
         <v>1.1610174600000001</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="60">
         <v>3.3898320000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="12" customHeight="1">
-      <c r="B30" s="73">
+      <c r="B30" s="59">
         <v>43035</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="60">
         <v>1.57627188</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="60">
         <v>0.11864412000000001</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="12" customHeight="1">
-      <c r="B31" s="73">
+      <c r="B31" s="59">
         <v>43036</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="60">
         <v>0.88135631999999997</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="60">
         <v>3.3898320000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="12" customHeight="1">
-      <c r="B32" s="73">
+      <c r="B32" s="59">
         <v>43037</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="60">
         <v>1.5254243999999999</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="12" customHeight="1">
-      <c r="B33" s="73">
+      <c r="B33" s="59">
         <v>43038</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="60">
         <v>1.3559327999999999</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="60">
         <v>5.084748E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="12" customHeight="1">
-      <c r="B34" s="73">
+      <c r="B34" s="59">
         <v>43039</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="60">
         <v>1.7796618</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="12" customHeight="1">
-      <c r="B35" s="73">
+      <c r="B35" s="59">
         <v>43040</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="60">
         <v>4.0339000800000004</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="12" customHeight="1">
-      <c r="B36" s="73">
+      <c r="B36" s="59">
         <v>43041</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="60">
         <v>136.83904326000001</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="12" customHeight="1">
-      <c r="B37" s="73">
+      <c r="B37" s="59">
         <v>43042</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="60">
         <v>289.90690721999999</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="60">
         <v>3.3898320000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="12" customHeight="1">
-      <c r="B38" s="73">
+      <c r="B38" s="59">
         <v>43043</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="60">
         <v>234.08484876</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="12" customHeight="1">
-      <c r="B39" s="73">
+      <c r="B39" s="59">
         <v>43044</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="60">
         <v>196.85601882</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="12" customHeight="1">
-      <c r="B40" s="73">
+      <c r="B40" s="59">
         <v>43045</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="60">
         <v>164.84753015999999</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="12" customHeight="1">
-      <c r="B41" s="73">
+      <c r="B41" s="59">
         <v>43046</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="60">
         <v>147.40684451999999</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="60">
         <v>3.3898320000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="12" customHeight="1">
-      <c r="B42" s="73">
+      <c r="B42" s="59">
         <v>43047</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="60">
         <v>131.33904084</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="12" customHeight="1">
-      <c r="B43" s="73">
+      <c r="B43" s="59">
         <v>43048</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="60">
         <v>119.14412022</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="12" customHeight="1">
-      <c r="B44" s="73">
+      <c r="B44" s="59">
         <v>43049</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="60">
         <v>110.37292992</v>
       </c>
-      <c r="D44" s="74">
+      <c r="D44" s="60">
         <v>5.084748E-2</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="12" customHeight="1">
-      <c r="B45" s="73">
+      <c r="B45" s="59">
         <v>43050</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C45" s="60">
         <v>86.576309280000004</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="12" customHeight="1">
-      <c r="B46" s="73">
+      <c r="B46" s="59">
         <v>43051</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="60">
         <v>71.33901444</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="60">
         <v>2.542374E-2</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="12" customHeight="1">
-      <c r="B47" s="73">
+      <c r="B47" s="59">
         <v>43052</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="60">
         <v>64.22884182</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="60">
         <v>3.3898320000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="12" customHeight="1">
-      <c r="B48" s="73">
+      <c r="B48" s="59">
         <v>43053</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C48" s="60">
         <v>59.762738159999998</v>
       </c>
-      <c r="D48" s="74">
+      <c r="D48" s="60">
         <v>8.4745800000000007E-3</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="12" customHeight="1">
-      <c r="B49" s="73">
+      <c r="B49" s="59">
         <v>43054</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C49" s="60">
         <v>55.042397100000002</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="60">
         <v>1.6949160000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="12" customHeight="1">
-      <c r="B50" s="73">
+      <c r="B50" s="59">
         <v>43055</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="60">
         <v>89.906819220000003</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="60">
         <v>5.0000022</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="12" customHeight="1">
-      <c r="B51" s="73">
+      <c r="B51" s="59">
         <v>43056</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="60">
         <v>131.07632885999999</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="60">
         <v>6.6610198799999996</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="12" customHeight="1">
-      <c r="B52" s="73">
+      <c r="B52" s="59">
         <v>43057</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="60">
         <v>152.86447404</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="60">
         <v>15.6356001</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="12" customHeight="1">
-      <c r="B53" s="73">
+      <c r="B53" s="59">
         <v>43058</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="60">
         <v>117.95767902</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="60">
         <v>31.389844320000002</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="12" customHeight="1">
-      <c r="B54" s="73">
+      <c r="B54" s="59">
         <v>43059</v>
       </c>
-      <c r="C54" s="74">
+      <c r="C54" s="60">
         <v>111.06784548</v>
       </c>
-      <c r="D54" s="74">
+      <c r="D54" s="60">
         <v>55.406804039999997</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="12" customHeight="1">
-      <c r="B55" s="73">
+      <c r="B55" s="59">
         <v>43060</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="60">
         <v>111.87293058</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="60">
         <v>45.16103682</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="12" customHeight="1">
-      <c r="B56" s="73">
+      <c r="B56" s="59">
         <v>43061</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="60">
         <v>118.86445908</v>
       </c>
-      <c r="D56" s="74">
+      <c r="D56" s="60">
         <v>40.449170340000002</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="12" customHeight="1">
-      <c r="B57" s="73">
+      <c r="B57" s="59">
         <v>43062</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C57" s="60">
         <v>120.98310408</v>
       </c>
-      <c r="D57" s="74">
+      <c r="D57" s="60">
         <v>35.135608679999997</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="12" customHeight="1">
-      <c r="B58" s="73">
+      <c r="B58" s="59">
         <v>43063</v>
       </c>
-      <c r="C58" s="74">
+      <c r="C58" s="60">
         <v>120.98412485</v>
       </c>
-      <c r="D58" s="74">
+      <c r="D58" s="60">
         <v>33.166583320000001</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="12" customHeight="1">
-      <c r="B59" s="73">
+      <c r="B59" s="59">
         <v>43064</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C59" s="60">
         <v>119.56784922</v>
       </c>
-      <c r="D59" s="74">
+      <c r="D59" s="60">
         <v>32.220353160000002</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="12" customHeight="1">
-      <c r="B60" s="73">
+      <c r="B60" s="59">
         <v>43065</v>
       </c>
-      <c r="C60" s="74">
+      <c r="C60" s="60">
         <v>122.76276588</v>
       </c>
-      <c r="D60" s="74">
+      <c r="D60" s="60">
         <v>30.4237422</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="12" customHeight="1">
-      <c r="B61" s="73">
+      <c r="B61" s="59">
         <v>43066</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C61" s="60">
         <v>122.91530831999999</v>
       </c>
-      <c r="D61" s="74">
+      <c r="D61" s="60">
         <v>28.91526696</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="12" customHeight="1">
-      <c r="B62" s="73">
+      <c r="B62" s="59">
         <v>43067</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C62" s="60">
         <v>122.19496902</v>
       </c>
-      <c r="D62" s="74">
+      <c r="D62" s="60">
         <v>29.449165499999999</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="12" customHeight="1">
-      <c r="B63" s="73">
+      <c r="B63" s="59">
         <v>43068</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C63" s="60">
         <v>124.53395310000001</v>
       </c>
-      <c r="D63" s="74">
+      <c r="D63" s="60">
         <v>31.169505239999999</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="12" customHeight="1">
-      <c r="B64" s="73">
+      <c r="B64" s="59">
         <v>43069</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="60">
         <v>127.56785274000001</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="60">
         <v>29.483063820000002</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="12" customHeight="1">
-      <c r="B65" s="73">
+      <c r="B65" s="59">
         <v>43070</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="60">
         <v>127.16107289999999</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="60">
         <v>28.533910859999999</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="12" customHeight="1">
-      <c r="B66" s="73">
+      <c r="B66" s="59">
         <v>43071</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="60">
         <v>126.04242834</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="60">
         <v>31.728827519999999</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="12" customHeight="1">
-      <c r="B67" s="73">
+      <c r="B67" s="59">
         <v>43072</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="60">
         <v>127.48193606</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="60">
         <v>29.459246889999999</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="12" customHeight="1">
-      <c r="B68" s="73">
+      <c r="B68" s="59">
         <v>43073</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="60">
         <v>130.537722</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="60">
         <v>28.218006639999999</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="12" customHeight="1">
-      <c r="B69" s="73">
+      <c r="B69" s="59">
         <v>43074</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="60">
         <v>130.14655693</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="60">
         <v>26.818966589999999</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="12" customHeight="1">
-      <c r="B70" s="73">
+      <c r="B70" s="59">
         <v>43075</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="60">
         <v>132.20690184</v>
       </c>
-      <c r="D70" s="74">
+      <c r="D70" s="60">
         <v>25.06896652</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="12" customHeight="1">
-      <c r="B71" s="73">
+      <c r="B71" s="59">
         <v>43076</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71" s="60">
         <v>131.85345355000001</v>
       </c>
-      <c r="D71" s="74">
+      <c r="D71" s="60">
         <v>24.198276830000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="12" customHeight="1">
-      <c r="B72" s="73">
+      <c r="B72" s="59">
         <v>43077</v>
       </c>
-      <c r="C72" s="74">
+      <c r="C72" s="60">
         <v>134.56035021</v>
       </c>
-      <c r="D72" s="74">
+      <c r="D72" s="60">
         <v>23.74138026</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="12" customHeight="1">
-      <c r="B73" s="73">
+      <c r="B73" s="59">
         <v>43078</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C73" s="60">
         <v>131.35392046000001</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D73" s="60">
         <v>22.455295039999999</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="12" customHeight="1">
-      <c r="B74" s="73">
+      <c r="B74" s="59">
         <v>43079</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="60">
         <v>132.13565136</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="60">
         <v>20.83051764</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="12" customHeight="1">
-      <c r="B75" s="73">
+      <c r="B75" s="59">
         <v>43080</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C75" s="60">
         <v>134.21192346000001</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D75" s="60">
         <v>21.084755040000001</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="12" customHeight="1">
-      <c r="B76" s="73">
+      <c r="B76" s="59">
         <v>43081</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C76" s="60">
         <v>134.81361863999999</v>
       </c>
-      <c r="D76" s="74">
+      <c r="D76" s="60">
         <v>20.491534439999999</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="12" customHeight="1">
-      <c r="B77" s="73">
+      <c r="B77" s="59">
         <v>43082</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C77" s="60">
         <v>150.43226958</v>
       </c>
-      <c r="D77" s="74">
+      <c r="D77" s="60">
         <v>21.381365339999999</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="12" customHeight="1">
-      <c r="B78" s="73">
+      <c r="B78" s="59">
         <v>43083</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C78" s="60">
         <v>139.66107840000001</v>
       </c>
-      <c r="D78" s="74">
+      <c r="D78" s="60">
         <v>21.440687400000002</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="12" customHeight="1">
-      <c r="B79" s="73">
+      <c r="B79" s="59">
         <v>43084</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C79" s="60">
         <v>136.38141594000001</v>
       </c>
-      <c r="D79" s="74">
+      <c r="D79" s="60">
         <v>21.0593313</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="12" customHeight="1">
-      <c r="B80" s="73">
+      <c r="B80" s="59">
         <v>43085</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="60">
         <v>134.43226254000001</v>
       </c>
-      <c r="D80" s="74">
+      <c r="D80" s="60">
         <v>20.906788859999999</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="12" customHeight="1">
-      <c r="B81" s="73">
+      <c r="B81" s="59">
         <v>43086</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C81" s="60">
         <v>121.31361269999999</v>
       </c>
-      <c r="D81" s="74">
+      <c r="D81" s="60">
         <v>22.338992879999999</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="12" customHeight="1">
-      <c r="B82" s="73">
+      <c r="B82" s="59">
         <v>43087</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C82" s="60">
         <v>108.39835278</v>
       </c>
-      <c r="D82" s="74">
+      <c r="D82" s="60">
         <v>21.66102648</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="12" customHeight="1">
-      <c r="B83" s="75">
+      <c r="B83" s="61">
         <v>43088</v>
       </c>
       <c r="C83" s="4">
@@ -6001,7 +5986,7 @@
       </c>
     </row>
     <row r="84" spans="2:4" ht="12" customHeight="1">
-      <c r="B84" s="75">
+      <c r="B84" s="61">
         <v>43089</v>
       </c>
       <c r="C84" s="4">
@@ -6012,7 +5997,7 @@
       </c>
     </row>
     <row r="85" spans="2:4" ht="12" customHeight="1">
-      <c r="B85" s="75">
+      <c r="B85" s="61">
         <v>43090</v>
       </c>
       <c r="C85" s="4">
@@ -6023,7 +6008,7 @@
       </c>
     </row>
     <row r="86" spans="2:4" ht="12" customHeight="1">
-      <c r="B86" s="75">
+      <c r="B86" s="61">
         <v>43091</v>
       </c>
       <c r="C86" s="4">
@@ -6034,7 +6019,7 @@
       </c>
     </row>
     <row r="87" spans="2:4" ht="12" customHeight="1">
-      <c r="B87" s="75">
+      <c r="B87" s="61">
         <v>43092</v>
       </c>
       <c r="C87" s="4">
@@ -6045,7 +6030,7 @@
       </c>
     </row>
     <row r="88" spans="2:4" ht="12" customHeight="1">
-      <c r="B88" s="75">
+      <c r="B88" s="61">
         <v>43093</v>
       </c>
       <c r="C88" s="4">
@@ -6056,7 +6041,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" ht="12" customHeight="1">
-      <c r="B89" s="75">
+      <c r="B89" s="61">
         <v>43094</v>
       </c>
       <c r="C89" s="4">
@@ -6067,7 +6052,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="12" customHeight="1">
-      <c r="B90" s="75">
+      <c r="B90" s="61">
         <v>43095</v>
       </c>
       <c r="C90" s="4">
@@ -6078,7 +6063,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="12" customHeight="1">
-      <c r="B91" s="75">
+      <c r="B91" s="61">
         <v>43096</v>
       </c>
       <c r="C91" s="4">
@@ -6089,7 +6074,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" ht="12" customHeight="1">
-      <c r="B92" s="75">
+      <c r="B92" s="61">
         <v>43097</v>
       </c>
       <c r="C92" s="4">
@@ -6100,7 +6085,7 @@
       </c>
     </row>
     <row r="93" spans="2:4" ht="12" customHeight="1">
-      <c r="B93" s="75">
+      <c r="B93" s="61">
         <v>43098</v>
       </c>
       <c r="C93" s="4">
@@ -6111,7 +6096,7 @@
       </c>
     </row>
     <row r="94" spans="2:4" ht="12" customHeight="1">
-      <c r="B94" s="75">
+      <c r="B94" s="61">
         <v>43099</v>
       </c>
       <c r="C94" s="4">
@@ -6122,7 +6107,7 @@
       </c>
     </row>
     <row r="95" spans="2:4" ht="12" customHeight="1">
-      <c r="B95" s="75">
+      <c r="B95" s="61">
         <v>43100</v>
       </c>
       <c r="C95" s="4">
@@ -6140,16 +6125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -6174,7 +6159,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -6225,19 +6210,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -6264,16 +6249,16 @@
     </row>
     <row r="4" spans="2:5" ht="23.25" customHeight="1">
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18">
         <v>2017</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1">
@@ -6349,21 +6334,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="8" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -6391,7 +6375,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -6548,17 +6532,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="8" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -6583,7 +6567,7 @@
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -6607,102 +6591,102 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="63">
+        <v>0.87679083094555876</v>
+      </c>
+      <c r="D5" s="63">
+        <v>0.81515349444807317</v>
+      </c>
+      <c r="E5" s="63">
+        <v>0.93937460114869176</v>
+      </c>
+      <c r="F5" s="63">
+        <v>0.42639455782312924</v>
+      </c>
+      <c r="G5" s="63">
+        <v>0.22085201793721973</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="77">
-        <v>0.87679083094555876</v>
-      </c>
-      <c r="D5" s="77">
-        <v>0.81515349444807317</v>
-      </c>
-      <c r="E5" s="77">
-        <v>0.93937460114869176</v>
-      </c>
-      <c r="F5" s="77">
-        <v>0.42639455782312924</v>
-      </c>
-      <c r="G5" s="77">
-        <v>0.22085201793721973</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="76" t="s">
+      <c r="C6" s="63">
+        <v>0</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0</v>
+      </c>
+      <c r="F6" s="63">
+        <v>4.8979591836734691E-3</v>
+      </c>
+      <c r="G6" s="63">
+        <v>4.0639013452914798E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C7" s="63">
         <v>0</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D7" s="63">
         <v>0</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E7" s="63">
+        <v>5.7434588385449903E-3</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0.54176870748299322</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0.48682735426008966</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="63">
         <v>0</v>
       </c>
-      <c r="F6" s="77">
-        <v>4.8979591836734691E-3</v>
-      </c>
-      <c r="G6" s="77">
-        <v>4.0639013452914798E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="77">
+      <c r="D8" s="63">
         <v>0</v>
       </c>
-      <c r="D7" s="77">
+      <c r="E8" s="63">
         <v>0</v>
       </c>
-      <c r="E7" s="77">
-        <v>5.7434588385449903E-3</v>
-      </c>
-      <c r="F7" s="77">
-        <v>0.54176870748299322</v>
-      </c>
-      <c r="G7" s="77">
-        <v>0.48682735426008966</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="76" t="s">
+      <c r="F8" s="63">
+        <v>5.4421768707482992E-4</v>
+      </c>
+      <c r="G8" s="63">
+        <v>0.20571748878923768</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="77">
-        <v>0</v>
-      </c>
-      <c r="D8" s="77">
-        <v>0</v>
-      </c>
-      <c r="E8" s="77">
-        <v>0</v>
-      </c>
-      <c r="F8" s="77">
-        <v>5.4421768707482992E-4</v>
-      </c>
-      <c r="G8" s="77">
-        <v>0.20571748878923768</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="77">
+      <c r="C9" s="63">
         <v>0.12320916905444126</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="63">
         <v>0.18484650555192683</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="63">
         <v>5.4881940012763239E-2</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="63">
         <v>2.6394557823129251E-2</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="63">
         <v>4.5964125560538117E-2</v>
       </c>
     </row>
@@ -6713,19 +6697,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -6744,18 +6728,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="23.25" customHeight="1">
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18">
         <v>2017</v>
@@ -6823,7 +6807,7 @@
     </row>
     <row r="8" spans="2:6" ht="23.25" customHeight="1">
       <c r="B8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="18">
         <v>2013</v>
@@ -6846,148 +6830,140 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B3" s="12" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B4" s="12" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1202</v>
+      </c>
+      <c r="D2" s="28">
+        <v>648</v>
+      </c>
+      <c r="E2" s="29">
+        <v>255</v>
+      </c>
+      <c r="F2" s="29">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="18">
-        <v>2017</v>
+      <c r="B3" s="18">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1840</v>
+      </c>
+      <c r="D3" s="28">
+        <v>502</v>
+      </c>
+      <c r="E3" s="29">
+        <v>200</v>
+      </c>
+      <c r="F3" s="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2051</v>
       </c>
       <c r="D4" s="28">
-        <v>1202</v>
-      </c>
-      <c r="E4" s="28">
-        <v>648</v>
+        <v>373</v>
+      </c>
+      <c r="E4" s="29">
+        <v>173</v>
       </c>
       <c r="F4" s="29">
-        <v>255</v>
-      </c>
-      <c r="G4" s="29">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2016</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3545</v>
       </c>
       <c r="D5" s="28">
-        <v>1840</v>
-      </c>
-      <c r="E5" s="28">
-        <v>502</v>
+        <v>364</v>
+      </c>
+      <c r="E5" s="29">
+        <v>170</v>
       </c>
       <c r="F5" s="29">
-        <v>200</v>
-      </c>
-      <c r="G5" s="29">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2015</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2951</v>
       </c>
       <c r="D6" s="28">
-        <v>2051</v>
-      </c>
-      <c r="E6" s="28">
-        <v>373</v>
+        <v>980</v>
+      </c>
+      <c r="E6" s="29">
+        <v>147</v>
       </c>
       <c r="F6" s="29">
-        <v>173</v>
-      </c>
-      <c r="G6" s="29">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18">
-        <v>2014</v>
-      </c>
-      <c r="D7" s="28">
-        <v>3545</v>
-      </c>
-      <c r="E7" s="28">
-        <v>364</v>
-      </c>
-      <c r="F7" s="29">
-        <v>170</v>
-      </c>
-      <c r="G7" s="29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2013</v>
-      </c>
-      <c r="D8" s="28">
-        <v>2951</v>
-      </c>
-      <c r="E8" s="28">
-        <v>980</v>
-      </c>
-      <c r="F8" s="29">
-        <v>147</v>
-      </c>
-      <c r="G8" s="29">
         <v>145</v>
       </c>
     </row>
